--- a/import_test/tstg_test.xlsx
+++ b/import_test/tstg_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B08AD-FBFE-2247-8B69-AF24E52CC1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1FD19A-5930-E64E-B044-FDDC32B9EE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="780" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="6080" yWindow="3260" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -475,43 +475,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,31 +500,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,6 +510,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,22 +839,26 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="29" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -914,74 +866,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="14" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
@@ -1076,394 +1028,404 @@
       </c>
     </row>
     <row r="4" spans="1:30">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>29921</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>4545121</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="5"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>28536</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>1257763</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="10"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>27995</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>5145789</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="10"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>33058</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>1237487</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="10"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>29336</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>54567</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="10"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/import_test/tstg_test.xlsx
+++ b/import_test/tstg_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1FD19A-5930-E64E-B044-FDDC32B9EE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECCE4C-B00B-2949-82F3-C6364CE79DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6080" yWindow="3260" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>性别</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>照片</t>
   </si>
   <si>
     <t>身份证号码</t>
@@ -503,6 +500,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,15 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,120 +833,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+    <row r="1" spans="1:29" ht="26">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:29">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -981,7 +976,7 @@
       <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -991,10 +986,10 @@
         <v>20</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>22</v>
@@ -1023,30 +1018,29 @@
       <c r="AC3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6">
+        <v>29921</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9">
-        <v>29921</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8">
+        <v>4545121</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="11">
-        <v>4545121</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>37</v>
@@ -1069,16 +1063,16 @@
       <c r="O4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -1093,52 +1087,51 @@
       <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6">
+        <v>28536</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="9">
-        <v>28536</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8">
+        <v>1257763</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1257763</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>61</v>
@@ -1149,16 +1142,16 @@
       <c r="O5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="4" t="s">
         <v>67</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -1168,54 +1161,53 @@
         <v>69</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="Z5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6">
+        <v>27995</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9">
-        <v>27995</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8">
+        <v>5145789</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="11">
-        <v>5145789</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>78</v>
@@ -1229,73 +1221,72 @@
       <c r="O6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="Z6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6">
+        <v>33058</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="9">
-        <v>33058</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8">
+        <v>1237487</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1237487</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>95</v>
@@ -1309,129 +1300,125 @@
       <c r="O7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="V7" s="4" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="Z7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6">
+        <v>29336</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9">
-        <v>29336</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8">
+        <v>54567</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="11">
-        <v>54567</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>110</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>116</v>
+      <c r="S8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Z8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/tstg_test.xlsx
+++ b/import_test/tstg_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECCE4C-B00B-2949-82F3-C6364CE79DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B8F7D-190D-CD4A-9901-28DBEB8805BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6080" yWindow="3260" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -129,7 +129,7 @@
   </si>
   <si>
     <t>台商台干</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张三</t>
@@ -397,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,13 +413,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -427,18 +420,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,41 +491,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,10 +843,10 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -863,556 +870,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>29921</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>4545121</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="4"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>28536</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>1257763</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="4"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>27995</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>5145789</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="s">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="4"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>33058</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>1237487</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4" t="s">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="4"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>29336</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>54567</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4" t="s">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="4"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1420,7 +1427,7 @@
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import_test/tstg_test.xlsx
+++ b/import_test/tstg_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B8F7D-190D-CD4A-9901-28DBEB8805BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312E814-73D9-4E8D-8BFF-35621BAC8622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="3260" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,16 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +514,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,583 +843,583 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>29921</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>4545121</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="7"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>28536</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>1257763</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="7"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>27995</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>5145789</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="7"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>33058</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>1237487</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="7"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>29336</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>54567</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="7"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/import_test/tstg_test.xlsx
+++ b/import_test/tstg_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPlace\台胞项目\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312E814-73D9-4E8D-8BFF-35621BAC8622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE578A87-94E7-4D5D-BD20-799FFCCBC028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,12 +87,6 @@
     <t>常驻地址</t>
   </si>
   <si>
-    <t>台湾手机号码</t>
-  </si>
-  <si>
-    <t>大陆手机号码</t>
-  </si>
-  <si>
     <t>所在单位</t>
   </si>
   <si>
@@ -388,6 +380,14 @@
   </si>
   <si>
     <t>二等奖</t>
+  </si>
+  <si>
+    <t>台湾联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -984,122 +984,122 @@
         <v>17</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5">
         <v>29921</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7">
         <v>4545121</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="5"/>
@@ -1108,77 +1108,77 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5">
         <v>28536</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7">
         <v>1257763</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="V5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="5"/>
@@ -1187,77 +1187,77 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5">
         <v>27995</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7">
         <v>5145789</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="S6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="U6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="V6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="5"/>
@@ -1266,77 +1266,77 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5">
         <v>33058</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7">
         <v>1237487</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="S7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="V7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="5"/>
@@ -1345,77 +1345,77 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>29336</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7">
         <v>54567</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="S8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="W8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="5"/>
@@ -1429,5 +1429,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>